--- a/biology/Zoologie/Euselasia_teleclus/Euselasia_teleclus.xlsx
+++ b/biology/Zoologie/Euselasia_teleclus/Euselasia_teleclus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia teleclus est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia teleclus a été décrit par Caspar Stoll en 1787 sous le nom de Papilio teleclus[1].
-Synonyme : Hesperia gemellus Fabricius, 1793; en Guyane[1]
-Nom vernaculaire
-Euselasia teleclus se nomme en anglais
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia teleclus a été décrit par Caspar Stoll en 1787 sous le nom de Papilio teleclus.
+Synonyme : Hesperia gemellus Fabricius, 1793; en Guyane
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euselasia teleclus, de couleur rouge grenat est très largement bordé de noir aux ailes antérieures comme aux ailes postérieures..
-L'autre face est de couleur beige avec la partie basale séparée de la partie distale par une de couleur rouille et une fine bordure rouille doubée d'une ligne submarginale de fins chevrons rouille.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia teleclus se nomme en anglais
 </t>
         </is>
       </c>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia teleclus, de couleur rouge grenat est très largement bordé de noir aux ailes antérieures comme aux ailes postérieures..
+L'autre face est de couleur beige avec la partie basale séparée de la partie distale par une de couleur rouille et une fine bordure rouille doubée d'une ligne submarginale de fins chevrons rouille.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,15 +625,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_teleclus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_teleclus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia teleclus est présent en Guyane au Surinam et en Équateur[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia teleclus est présent en Guyane au Surinam et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_teleclus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_teleclus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
